--- a/hydrostatic_properties.xlsx
+++ b/hydrostatic_properties.xlsx
@@ -5,20 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitkgpacin-my.sharepoint.com/personal/swagotosurjodutta_kgpian_iitkgp_ac_in/Documents/Documents/IIT/BTech/4th Year/8th Semester/Structural Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec99b48d946fe934/Documents/GitHub/Strutural-Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{6D1327D9-B129-4DB2-9FE9-8017326F1ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F8713CE-AFF8-445F-8F37-B9383BF77873}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{6D1327D9-B129-4DB2-9FE9-8017326F1ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C86DDA1-2FD4-486B-B988-139193A9F290}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{368159F8-FF21-4606-B4AE-21AC2647A6CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$A$112</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,9 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79614ECB-6913-466D-8A15-712229A599C4}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,2463 +443,2285 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="B2">
-        <v>10.1959</v>
+        <v>7.5133000000000001</v>
       </c>
       <c r="C2">
-        <v>0.63419857554913661</v>
+        <v>0.05</v>
       </c>
       <c r="D2">
-        <v>6.886269113969389</v>
+        <v>1.0889</v>
       </c>
       <c r="E2">
-        <v>2.5667693256976571</v>
+        <v>1.9882</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1.1000000000000001</v>
+        <f>0.1+A2</f>
+        <v>0.2</v>
       </c>
       <c r="B3">
-        <v>11.611700000000001</v>
+        <v>15.0725</v>
       </c>
       <c r="C3">
-        <v>0.68550284168463971</v>
+        <v>0.1</v>
       </c>
       <c r="D3">
-        <v>7.0284840771525579</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="E3">
-        <v>2.6094816798290812</v>
+        <v>2.0179999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1.2</v>
+        <f t="shared" ref="A4:A67" si="0">0.1+A3</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="B4">
-        <v>13.1622</v>
+        <v>22.676400000000001</v>
       </c>
       <c r="C4">
-        <v>0.74699268356363857</v>
+        <v>0.15</v>
       </c>
       <c r="D4">
-        <v>7.123475683340363</v>
+        <v>1.1272</v>
       </c>
       <c r="E4">
-        <v>2.6590737998003839</v>
+        <v>2.0474999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1.3</v>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
       <c r="B5">
-        <v>14.8477</v>
+        <v>30.178599999999999</v>
       </c>
       <c r="C5">
-        <v>0.95203903819446123</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D5">
-        <v>7.4075006178141747</v>
+        <v>1.1249</v>
       </c>
       <c r="E5">
-        <v>2.9796201434829293</v>
+        <v>2.0787</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1.4</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="B6">
-        <v>16.667899999999999</v>
+        <v>37.556899999999999</v>
       </c>
       <c r="C6">
-        <v>0.98690370121463078</v>
+        <v>0.25330000000000003</v>
       </c>
       <c r="D6">
-        <v>7.603523256003907</v>
-      </c>
-      <c r="E6">
-        <v>3.0937624571728612</v>
+        <v>1.1052999999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.1126</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
       <c r="B7">
-        <v>18.623000000000001</v>
+        <v>46.3431</v>
       </c>
       <c r="C7">
-        <v>1.0734777718373059</v>
+        <v>0.30170000000000002</v>
       </c>
       <c r="D7">
-        <v>8.4531957674617324</v>
-      </c>
-      <c r="E7">
-        <v>3.2208726347810814</v>
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.2170999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1.6</v>
+        <f t="shared" si="0"/>
+        <v>0.7</v>
       </c>
       <c r="B8">
-        <v>20.712900000000001</v>
+        <v>54.1</v>
       </c>
       <c r="C8">
-        <v>1.1664138040045642</v>
+        <v>0.35370000000000001</v>
       </c>
       <c r="D8">
-        <v>9.1363992604338726</v>
-      </c>
-      <c r="E8">
-        <v>3.3685846871760434</v>
+        <v>1.2301</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.2783000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1.7000000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.79999999999999993</v>
       </c>
       <c r="B9">
-        <v>22.9377</v>
+        <v>63.321399999999997</v>
       </c>
       <c r="C9">
-        <v>1.256435532934848</v>
+        <v>0.40260000000000001</v>
       </c>
       <c r="D9">
-        <v>9.6300727024280928</v>
-      </c>
-      <c r="E9">
-        <v>3.5325867968500115</v>
+        <v>1.3445</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.3853</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>1.8</v>
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
       </c>
       <c r="B10">
-        <v>25.2972</v>
+        <v>72.960400000000007</v>
       </c>
       <c r="C10">
-        <v>1.3627664828808852</v>
-      </c>
-      <c r="D10">
-        <v>10.024921012916087</v>
-      </c>
-      <c r="E10">
-        <v>3.7634547940837462</v>
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.4459</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.5295000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>1.9</v>
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="B11">
-        <v>27.791599999999999</v>
+        <v>81.591200000000001</v>
       </c>
       <c r="C11">
-        <v>1.5250035069523022</v>
-      </c>
-      <c r="D11">
-        <v>10.351876904315624</v>
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.4830000000000001</v>
       </c>
       <c r="E11">
-        <v>4.3493623476529102</v>
+        <v>2.5668000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999</v>
       </c>
       <c r="B12">
-        <v>30.4209</v>
+        <v>90.934399999999997</v>
       </c>
       <c r="C12">
-        <v>1.5602010462729041</v>
-      </c>
-      <c r="D12">
-        <v>10.539805734938598</v>
+        <v>0.55349999999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.5632999999999999</v>
       </c>
       <c r="E12">
-        <v>4.4493711537592766</v>
+        <v>2.6095000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2.1</v>
+        <f t="shared" si="0"/>
+        <v>1.2</v>
       </c>
       <c r="B13">
-        <v>33.185000000000002</v>
+        <v>100.2255</v>
       </c>
       <c r="C13">
-        <v>1.5958398812327788</v>
-      </c>
-      <c r="D13">
-        <v>10.702987499429399</v>
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.6263000000000001</v>
       </c>
       <c r="E13">
-        <v>4.5353991539624321</v>
+        <v>2.6591</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2.2000000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1.3</v>
       </c>
       <c r="B14">
-        <v>36.0839</v>
+        <v>111.5885</v>
       </c>
       <c r="C14">
-        <v>1.629778154287022</v>
-      </c>
-      <c r="D14">
-        <v>10.807493988205918</v>
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.8337000000000001</v>
       </c>
       <c r="E14">
-        <v>4.6066920201831048</v>
+        <v>2.9796</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2.2999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001</v>
       </c>
       <c r="B15">
-        <v>39.117600000000003</v>
+        <v>121.0198</v>
       </c>
       <c r="C15">
-        <v>1.66484765633813</v>
-      </c>
-      <c r="D15">
-        <v>10.919545502076588</v>
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.871</v>
       </c>
       <c r="E15">
-        <v>4.6680276438180348</v>
+        <v>3.0937999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2.4000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>1.5000000000000002</v>
       </c>
       <c r="B16">
-        <v>42.286200000000001</v>
+        <v>136.98060000000001</v>
       </c>
       <c r="C16">
-        <v>1.7030632415797979</v>
-      </c>
-      <c r="D16">
-        <v>11.053380217822218</v>
+        <v>0.7208</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.1701999999999999</v>
       </c>
       <c r="E16">
-        <v>4.7204670810394864</v>
+        <v>3.2208999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2.5</v>
+        <f t="shared" si="0"/>
+        <v>1.6000000000000003</v>
       </c>
       <c r="B17">
-        <v>45.589599999999997</v>
+        <v>149.96559999999999</v>
       </c>
       <c r="C17">
-        <v>1.7470178410602204</v>
-      </c>
-      <c r="D17">
-        <v>11.2109902168137</v>
+        <v>0.76</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.3151999999999999</v>
       </c>
       <c r="E17">
-        <v>4.7734048558454356</v>
+        <v>3.3685999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2.6</v>
+        <f t="shared" si="0"/>
+        <v>1.7000000000000004</v>
       </c>
       <c r="B18">
-        <v>49.027900000000002</v>
+        <v>162.08680000000001</v>
       </c>
       <c r="C18">
-        <v>1.8008526786018804</v>
-      </c>
-      <c r="D18">
-        <v>11.406991623245665</v>
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2.4563000000000001</v>
       </c>
       <c r="E18">
-        <v>4.8315575308153873</v>
+        <v>3.5326</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2.7</v>
+        <f t="shared" si="0"/>
+        <v>1.8000000000000005</v>
       </c>
       <c r="B19">
-        <v>52.600999999999999</v>
+        <v>209.6283</v>
       </c>
       <c r="C19">
-        <v>1.8592515222151995</v>
-      </c>
-      <c r="D19">
-        <v>11.616772281908831</v>
+        <v>0.71120000000000005</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.4470999999999998</v>
       </c>
       <c r="E19">
-        <v>4.9053745433263183</v>
+        <v>3.7635000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2.8</v>
+        <f t="shared" si="0"/>
+        <v>1.9000000000000006</v>
       </c>
       <c r="B20">
-        <v>56.308900000000001</v>
+        <v>233.90459999999999</v>
       </c>
       <c r="C20">
-        <v>1.9258868779431559</v>
+        <v>0.73080000000000001</v>
       </c>
       <c r="D20">
-        <v>11.917889221155004</v>
+        <v>2.8473999999999999</v>
       </c>
       <c r="E20">
-        <v>6.0978978728621929</v>
+        <v>4.3494000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2.9000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>2.0000000000000004</v>
       </c>
       <c r="B21">
-        <v>60.151600000000002</v>
+        <v>256.18529999999998</v>
       </c>
       <c r="C21">
-        <v>1.9942974530995383</v>
+        <v>0.75929999999999997</v>
       </c>
       <c r="D21">
-        <v>12.25520235751665</v>
+        <v>3.2759</v>
       </c>
       <c r="E21">
-        <v>6.3101088295273264</v>
+        <v>4.4493999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2.1000000000000005</v>
       </c>
       <c r="B22">
-        <v>64.129199999999997</v>
+        <v>314.15890000000002</v>
       </c>
       <c r="C22">
-        <v>2.0604741568767158</v>
+        <v>0.7</v>
       </c>
       <c r="D22">
-        <v>12.545307687063247</v>
+        <v>3.5314999999999999</v>
       </c>
       <c r="E22">
-        <v>6.5137559215185359</v>
+        <v>4.5354000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>3.1</v>
+        <f t="shared" si="0"/>
+        <v>2.2000000000000006</v>
       </c>
       <c r="B23">
-        <v>68.241600000000005</v>
+        <v>348.745</v>
       </c>
       <c r="C23">
-        <v>2.1248059818423277</v>
+        <v>0.70830000000000004</v>
       </c>
       <c r="D23">
-        <v>12.788706546237824</v>
+        <v>3.9554</v>
       </c>
       <c r="E23">
-        <v>6.7052259261689748</v>
+        <v>4.6067</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>3.2</v>
+        <f t="shared" si="0"/>
+        <v>2.3000000000000007</v>
       </c>
       <c r="B24">
-        <v>72.488900000000001</v>
+        <v>378.62270000000001</v>
       </c>
       <c r="C24">
-        <v>2.1822036786966761</v>
+        <v>0.72860000000000003</v>
       </c>
       <c r="D24">
-        <v>12.931844713531014</v>
+        <v>4.2065999999999999</v>
       </c>
       <c r="E24">
-        <v>6.8595653606915841</v>
+        <v>4.6680000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>3.3000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>2.4000000000000008</v>
       </c>
       <c r="B25">
-        <v>76.870900000000006</v>
+        <v>479.57839999999999</v>
       </c>
       <c r="C25">
-        <v>2.2386847220337587</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D25">
-        <v>13.063102559026445</v>
+        <v>4.1288</v>
       </c>
       <c r="E25">
-        <v>7.010079980929131</v>
+        <v>4.7205000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>3.4000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>2.5000000000000009</v>
       </c>
       <c r="B26">
-        <v>81.387900000000002</v>
+        <v>507.01780000000002</v>
       </c>
       <c r="C26">
-        <v>2.2909975349597347</v>
+        <v>0.66839999999999999</v>
       </c>
       <c r="D26">
-        <v>13.140362964862634</v>
+        <v>4.0422000000000002</v>
       </c>
       <c r="E26">
-        <v>7.1411085391625706</v>
+        <v>4.7733999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>3.5</v>
+        <f t="shared" si="0"/>
+        <v>2.600000000000001</v>
       </c>
       <c r="B27">
-        <v>86.039599999999993</v>
+        <v>557.01729999999998</v>
       </c>
       <c r="C27">
-        <v>2.3439356582772635</v>
+        <v>0.67010000000000003</v>
       </c>
       <c r="D27">
-        <v>13.205838379967505</v>
+        <v>4.2408999999999999</v>
       </c>
       <c r="E27">
-        <v>7.2686885859669408</v>
+        <v>4.8315999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>3.6</v>
+        <f t="shared" si="0"/>
+        <v>2.7000000000000011</v>
       </c>
       <c r="B28">
-        <v>90.8262</v>
+        <v>581.41240000000005</v>
       </c>
       <c r="C28">
-        <v>2.3971874273810263</v>
+        <v>0.7046</v>
       </c>
       <c r="D28">
-        <v>13.265336444540752</v>
+        <v>4.4352</v>
       </c>
       <c r="E28">
-        <v>7.3887548707641688</v>
+        <v>4.9054000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>3.7</v>
+        <f t="shared" si="0"/>
+        <v>2.8000000000000012</v>
       </c>
       <c r="B29">
-        <v>95.747600000000006</v>
+        <v>603.96439999999996</v>
       </c>
       <c r="C29">
-        <v>2.4429295961629398</v>
+        <v>0.74209999999999998</v>
       </c>
       <c r="D29">
-        <v>13.305623486127356</v>
+        <v>4.6279000000000003</v>
       </c>
       <c r="E29">
-        <v>7.4722838020767606</v>
+        <v>6.0979000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>3.8000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>2.9000000000000012</v>
       </c>
       <c r="B30">
-        <v>100.8038</v>
+        <v>646.74630000000002</v>
       </c>
       <c r="C30">
-        <v>2.4903298049661124</v>
+        <v>0.75609999999999999</v>
       </c>
       <c r="D30">
-        <v>13.34752577782981</v>
+        <v>4.8213999999999997</v>
       </c>
       <c r="E30">
-        <v>7.5606214226311206</v>
+        <v>6.3101000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>3.9000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>3.0000000000000013</v>
       </c>
       <c r="B31">
-        <v>105.9949</v>
+        <v>712.39829999999995</v>
       </c>
       <c r="C31">
-        <v>2.5391526163214384</v>
+        <v>0.747</v>
       </c>
       <c r="D31">
-        <v>13.387384300428002</v>
+        <v>4.7996999999999996</v>
       </c>
       <c r="E31">
-        <v>7.6489742059652608</v>
+        <v>6.5137999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3.1000000000000014</v>
       </c>
       <c r="B32">
-        <v>111.32080000000001</v>
+        <v>983.94399999999996</v>
       </c>
       <c r="C32">
-        <v>2.5898434339162231</v>
+        <v>0.58709999999999996</v>
       </c>
       <c r="D32">
-        <v>13.431093793951439</v>
+        <v>5.0620000000000003</v>
       </c>
       <c r="E32">
-        <v>7.7284632234578741</v>
+        <v>6.7051999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B33">
-        <v>116.7816</v>
+        <f t="shared" si="0"/>
+        <v>3.2000000000000015</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1006.5</v>
       </c>
       <c r="C33">
-        <v>2.6403538466088525</v>
+        <v>0.62160000000000004</v>
       </c>
       <c r="D33">
-        <v>13.468271117949202</v>
+        <v>5.0730000000000004</v>
       </c>
       <c r="E33">
-        <v>7.8009113292588612</v>
+        <v>6.8596000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>4.2</v>
-      </c>
-      <c r="B34">
-        <v>122.3772</v>
+        <f t="shared" si="0"/>
+        <v>3.3000000000000016</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1104.7</v>
       </c>
       <c r="C34">
-        <v>2.6907770716989368</v>
+        <v>0.6119</v>
       </c>
       <c r="D34">
-        <v>13.496722487953285</v>
+        <v>5.6291000000000002</v>
       </c>
       <c r="E34">
-        <v>7.8663635645338079</v>
+        <v>7.0101000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="B35">
-        <v>128.10759999999999</v>
+        <f t="shared" si="0"/>
+        <v>3.4000000000000017</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1200.7</v>
       </c>
       <c r="C35">
-        <v>2.7451513307167263</v>
+        <v>0.6069</v>
       </c>
       <c r="D35">
-        <v>13.547377966138715</v>
+        <v>5.5102000000000002</v>
       </c>
       <c r="E35">
-        <v>8.4175830203986344</v>
+        <v>7.1410999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B36">
-        <v>133.97280000000001</v>
+        <f t="shared" si="0"/>
+        <v>3.5000000000000018</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1325.7</v>
       </c>
       <c r="C36">
-        <v>2.8074849940344642</v>
+        <v>0.59119999999999995</v>
       </c>
       <c r="D36">
-        <v>13.670701875078793</v>
+        <v>5.0098000000000003</v>
       </c>
       <c r="E36">
-        <v>8.5267003102164303</v>
+        <v>7.2686999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>4.5</v>
-      </c>
-      <c r="B37">
-        <v>139.97290000000001</v>
+        <f t="shared" si="0"/>
+        <v>3.6000000000000019</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1494.5</v>
       </c>
       <c r="C37">
-        <v>2.8702659429907049</v>
+        <v>0.56279999999999997</v>
       </c>
       <c r="D37">
-        <v>13.786508791750604</v>
+        <v>5.1577000000000002</v>
       </c>
       <c r="E37">
-        <v>8.6331559992979692</v>
+        <v>7.3887999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B38">
-        <v>146.1078</v>
+        <f t="shared" si="0"/>
+        <v>3.700000000000002</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1571.9</v>
       </c>
       <c r="C38">
-        <v>2.933535068461671</v>
+        <v>0.57320000000000004</v>
       </c>
       <c r="D38">
-        <v>13.895642814095771</v>
+        <v>5.6345000000000001</v>
       </c>
       <c r="E38">
-        <v>8.7369791822087439</v>
+        <v>7.4722999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>4.7</v>
-      </c>
-      <c r="B39">
-        <v>152.3776</v>
+        <f t="shared" si="0"/>
+        <v>3.800000000000002</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1613.5</v>
       </c>
       <c r="C39">
-        <v>2.9941985460409661</v>
+        <v>0.59689999999999999</v>
       </c>
       <c r="D39">
-        <v>13.987535407059244</v>
+        <v>5.6510999999999996</v>
       </c>
       <c r="E39">
-        <v>8.8380692657788185</v>
+        <v>7.5606</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="B40">
-        <v>158.78210000000001</v>
+        <f t="shared" si="0"/>
+        <v>3.9000000000000021</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1666.2</v>
       </c>
       <c r="C40">
-        <v>3.0545691129165502</v>
+        <v>0.61670000000000003</v>
       </c>
       <c r="D40">
-        <v>14.073004111429173</v>
+        <v>5.6921999999999997</v>
       </c>
       <c r="E40">
-        <v>8.9351886379023586</v>
+        <v>7.649</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B41">
-        <v>165.32149999999999</v>
+        <f t="shared" si="0"/>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1692.6</v>
       </c>
       <c r="C41">
-        <v>3.1136817880834955</v>
+        <v>0.64659999999999995</v>
       </c>
       <c r="D41">
-        <v>14.139657967693502</v>
+        <v>5.8082000000000003</v>
       </c>
       <c r="E41">
-        <v>9.0277440838056027</v>
+        <v>7.7285000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="B42">
-        <v>171.9958</v>
+        <f t="shared" si="0"/>
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1927.6</v>
       </c>
       <c r="C42">
-        <v>3.1734997641617797</v>
+        <v>0.60370000000000001</v>
       </c>
       <c r="D42">
-        <v>14.20594287264006</v>
+        <v>6.2991999999999999</v>
       </c>
       <c r="E42">
-        <v>9.1199362796011716</v>
+        <v>7.8009000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>5.1000000000000005</v>
-      </c>
-      <c r="B43">
-        <v>178.8049</v>
+        <f t="shared" si="0"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1984.4</v>
       </c>
       <c r="C43">
-        <v>3.2353004700704147</v>
+        <v>0.62260000000000004</v>
       </c>
       <c r="D43">
-        <v>14.278329223749218</v>
+        <v>6.1181000000000001</v>
       </c>
       <c r="E43">
-        <v>9.2122413220243651</v>
+        <v>7.8663999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>5.2</v>
-      </c>
-      <c r="B44">
-        <v>185.74879999999999</v>
+        <f t="shared" si="0"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2140.1999999999998</v>
       </c>
       <c r="C44">
-        <v>3.2982220547979697</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D44">
-        <v>14.352848904574456</v>
+        <v>6.1750999999999996</v>
       </c>
       <c r="E44">
-        <v>9.3038180909140493</v>
+        <v>8.4176000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>5.3</v>
-      </c>
-      <c r="B45">
-        <v>192.82749999999999</v>
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2157.9</v>
       </c>
       <c r="C45">
-        <v>3.3615412782722442</v>
+        <v>0.64259999999999995</v>
       </c>
       <c r="D45">
-        <v>14.423643085980249</v>
+        <v>6.1863999999999999</v>
       </c>
       <c r="E45">
-        <v>9.3933438091012516</v>
+        <v>8.5266999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>5.4</v>
-      </c>
-      <c r="B46">
-        <v>200.0411</v>
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2372.5</v>
       </c>
       <c r="C46">
-        <v>3.4256270027841014</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D46">
-        <v>14.492971228107413</v>
+        <v>5.8038999999999996</v>
       </c>
       <c r="E46">
-        <v>9.4814073759103472</v>
+        <v>8.6332000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>5.5</v>
-      </c>
-      <c r="B47">
-        <v>207.3895</v>
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2668.9</v>
       </c>
       <c r="C47">
-        <v>3.4902996187755493</v>
+        <v>0.58020000000000005</v>
       </c>
       <c r="D47">
-        <v>14.553438482081846</v>
+        <v>6.5994000000000002</v>
       </c>
       <c r="E47">
-        <v>9.5659194937818199</v>
+        <v>8.7370000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="B48">
-        <v>214.87280000000001</v>
+        <f t="shared" si="0"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2797.8</v>
       </c>
       <c r="C48">
-        <v>3.5544326078109902</v>
+        <v>0.58389999999999997</v>
       </c>
       <c r="D48">
-        <v>14.608293138428015</v>
+        <v>6.7317</v>
       </c>
       <c r="E48">
-        <v>9.6472035916905661</v>
+        <v>8.8381000000000007</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>5.7</v>
-      </c>
-      <c r="B49">
-        <v>222.49080000000001</v>
+        <f t="shared" si="0"/>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2946.3</v>
       </c>
       <c r="C49">
-        <v>3.6179255671738364</v>
+        <v>0.58430000000000004</v>
       </c>
       <c r="D49">
-        <v>14.655901696087389</v>
+        <v>6.3657000000000004</v>
       </c>
       <c r="E49">
-        <v>9.723574563278401</v>
+        <v>8.9352</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>5.8000000000000007</v>
-      </c>
-      <c r="B50">
-        <v>230.24369999999999</v>
+        <f t="shared" si="0"/>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3039.7</v>
       </c>
       <c r="C50">
-        <v>3.6823618257463435</v>
+        <v>0.59619999999999995</v>
       </c>
       <c r="D50">
-        <v>14.710432434187348</v>
+        <v>6.2759999999999998</v>
       </c>
       <c r="E50">
-        <v>9.8000894618285699</v>
+        <v>9.0276999999999994</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>5.9</v>
-      </c>
-      <c r="B51">
-        <v>238.13149999999999</v>
+        <f t="shared" si="0"/>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3152.8</v>
       </c>
       <c r="C51">
-        <v>3.7468847184844321</v>
+        <v>0.60440000000000005</v>
       </c>
       <c r="D51">
-        <v>14.765922145819914</v>
+        <v>6.5411999999999999</v>
       </c>
       <c r="E51">
-        <v>9.8759822045444441</v>
+        <v>9.1198999999999995</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>6</v>
-      </c>
-      <c r="B52">
-        <v>246.1541</v>
+        <f t="shared" si="0"/>
+        <v>5.0999999999999979</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3219.5</v>
       </c>
       <c r="C52">
-        <v>3.8127181857439414</v>
+        <v>0.62190000000000001</v>
       </c>
       <c r="D52">
-        <v>14.816673963716726</v>
+        <v>6.5072999999999999</v>
       </c>
       <c r="E52">
-        <v>9.9501561548976412</v>
+        <v>9.2121999999999993</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>6.1000000000000005</v>
-      </c>
-      <c r="B53">
-        <v>254.3115</v>
+        <f t="shared" si="0"/>
+        <v>5.1999999999999975</v>
+      </c>
+      <c r="B53" s="2">
+        <v>3238.8</v>
       </c>
       <c r="C53">
-        <v>3.8791962438424137</v>
+        <v>0.64880000000000004</v>
       </c>
       <c r="D53">
-        <v>14.857288329158743</v>
+        <v>6.5179999999999998</v>
       </c>
       <c r="E53">
-        <v>10.019970995678481</v>
+        <v>9.3038000000000007</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>6.2</v>
-      </c>
-      <c r="B54">
-        <v>262.6037</v>
+        <f t="shared" si="0"/>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="B54" s="2">
+        <v>3407.9</v>
       </c>
       <c r="C54">
-        <v>3.9455988040232599</v>
+        <v>0.64659999999999995</v>
       </c>
       <c r="D54">
-        <v>14.893343151531869</v>
+        <v>6.3292000000000002</v>
       </c>
       <c r="E54">
-        <v>10.086832688799644</v>
+        <v>9.3933</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="B55">
-        <v>271.0308</v>
+        <f t="shared" si="0"/>
+        <v>5.3999999999999968</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3926.6</v>
       </c>
       <c r="C55">
-        <v>4.0128901987724088</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="D55">
-        <v>14.929588168696231</v>
+        <v>6.7641</v>
       </c>
       <c r="E55">
-        <v>10.153033542477132</v>
+        <v>9.4814000000000007</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>6.4</v>
-      </c>
-      <c r="B56">
-        <v>279.59269999999998</v>
+        <f t="shared" si="0"/>
+        <v>5.4999999999999964</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4311.3</v>
       </c>
       <c r="C56">
-        <v>4.078902290951036</v>
+        <v>0.56069999999999998</v>
       </c>
       <c r="D56">
-        <v>14.957658312767434</v>
+        <v>7.0603999999999996</v>
       </c>
       <c r="E56">
-        <v>10.213494978556707</v>
+        <v>9.5658999999999992</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>6.5</v>
-      </c>
-      <c r="B57">
-        <v>288.2894</v>
+        <f t="shared" si="0"/>
+        <v>5.5999999999999961</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4350.8</v>
       </c>
       <c r="C57">
-        <v>4.1482770185325428</v>
+        <v>0.58130000000000004</v>
       </c>
       <c r="D57">
-        <v>15.016797240096645</v>
+        <v>7.0593000000000004</v>
       </c>
       <c r="E57">
-        <v>10.66166299539633</v>
+        <v>9.6471999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="B58">
-        <v>297.12099999999998</v>
+        <f t="shared" si="0"/>
+        <v>5.6999999999999957</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4476.5</v>
       </c>
       <c r="C58">
-        <v>4.2200420460980217</v>
+        <v>0.59060000000000001</v>
       </c>
       <c r="D58">
-        <v>15.095347232256875</v>
+        <v>7.3395999999999999</v>
       </c>
       <c r="E58">
-        <v>10.749193328951172</v>
+        <v>9.7235999999999994</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>6.7</v>
-      </c>
-      <c r="B59">
-        <v>306.0874</v>
+        <f t="shared" si="0"/>
+        <v>5.7999999999999954</v>
+      </c>
+      <c r="B59" s="2">
+        <v>4665.6000000000004</v>
       </c>
       <c r="C59">
-        <v>4.2924513687989778</v>
+        <v>0.59189999999999998</v>
       </c>
       <c r="D59">
-        <v>15.166208546742512</v>
+        <v>7.1109</v>
       </c>
       <c r="E59">
-        <v>10.83399549428132</v>
+        <v>9.8001000000000005</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="B60">
-        <v>315.18869999999998</v>
+        <f t="shared" si="0"/>
+        <v>5.899999999999995</v>
+      </c>
+      <c r="B60" s="2">
+        <v>4958.3999999999996</v>
       </c>
       <c r="C60">
-        <v>4.367062774987482</v>
+        <v>0.58140000000000003</v>
       </c>
       <c r="D60">
-        <v>15.212762215088423</v>
+        <v>6.7754000000000003</v>
       </c>
       <c r="E60">
-        <v>10.91200658275946</v>
+        <v>9.8759999999999994</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>6.9</v>
-      </c>
-      <c r="B61">
-        <v>324.4248</v>
+        <f t="shared" si="0"/>
+        <v>5.9999999999999947</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5250.1</v>
       </c>
       <c r="C61">
-        <v>4.4387790407453078</v>
+        <v>0.57279999999999998</v>
       </c>
       <c r="D61">
-        <v>15.270010177554777</v>
+        <v>6.8413000000000004</v>
       </c>
       <c r="E61">
-        <v>10.990172849328825</v>
+        <v>9.9502000000000006</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>7</v>
-      </c>
-      <c r="B62">
-        <v>333.79570000000001</v>
+        <f t="shared" si="0"/>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5349.3</v>
       </c>
       <c r="C62">
-        <v>4.5084698715907683</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D62">
-        <v>15.308978980949538</v>
+        <v>7.0858999999999996</v>
       </c>
       <c r="E62">
-        <v>11.061041318148172</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>7.1000000000000005</v>
-      </c>
-      <c r="B63">
-        <v>343.3014</v>
+        <f t="shared" si="0"/>
+        <v>6.199999999999994</v>
+      </c>
+      <c r="B63" s="2">
+        <v>5501.8</v>
       </c>
       <c r="C63">
-        <v>4.5807519647714345</v>
+        <v>0.59360000000000002</v>
       </c>
       <c r="D63">
-        <v>15.359420779309961</v>
+        <v>6.9779999999999998</v>
       </c>
       <c r="E63">
-        <v>11.134095053030675</v>
+        <v>10.0868</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>7.2</v>
-      </c>
-      <c r="B64">
-        <v>352.94200000000001</v>
+        <f t="shared" si="0"/>
+        <v>6.2999999999999936</v>
+      </c>
+      <c r="B64" s="2">
+        <v>5597.2</v>
       </c>
       <c r="C64">
-        <v>4.6539857550171009</v>
+        <v>0.60750000000000004</v>
       </c>
       <c r="D64">
-        <v>15.412899322702366</v>
+        <v>6.9151999999999996</v>
       </c>
       <c r="E64">
-        <v>11.209073828832164</v>
+        <v>10.153</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="B65">
-        <v>362.7174</v>
+        <f t="shared" si="0"/>
+        <v>6.3999999999999932</v>
+      </c>
+      <c r="B65" s="2">
+        <v>5813.4</v>
       </c>
       <c r="C65">
-        <v>4.7270054963088048</v>
+        <v>0.60860000000000003</v>
       </c>
       <c r="D65">
-        <v>15.463284296330121</v>
+        <v>6.9276999999999997</v>
       </c>
       <c r="E65">
-        <v>11.282445856827179</v>
+        <v>10.2135</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>7.4</v>
-      </c>
-      <c r="B66">
-        <v>372.62759999999997</v>
+        <f t="shared" si="0"/>
+        <v>6.4999999999999929</v>
+      </c>
+      <c r="B66" s="2">
+        <v>6259</v>
       </c>
       <c r="C66">
-        <v>4.7995091689687444</v>
+        <v>0.58789999999999998</v>
       </c>
       <c r="D66">
-        <v>15.509850488253818</v>
+        <v>7.6440999999999999</v>
       </c>
       <c r="E66">
-        <v>11.35348931856432</v>
+        <v>10.6617</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>7.5</v>
-      </c>
-      <c r="B67">
-        <v>382.67270000000002</v>
+        <f t="shared" si="0"/>
+        <v>6.5999999999999925</v>
+      </c>
+      <c r="B67" s="2">
+        <v>6884.2</v>
       </c>
       <c r="C67">
-        <v>4.871236030052744</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="D67">
-        <v>15.551356508066172</v>
+        <v>7.8068999999999997</v>
       </c>
       <c r="E67">
-        <v>11.421256044384403</v>
+        <v>10.7492</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>7.6000000000000005</v>
-      </c>
-      <c r="B68">
-        <v>392.8526</v>
+        <f t="shared" ref="A68:A131" si="1">0.1+A67</f>
+        <v>6.6999999999999922</v>
+      </c>
+      <c r="B68" s="2">
+        <v>7287.3</v>
       </c>
       <c r="C68">
-        <v>4.9437977633988384</v>
+        <v>0.54520000000000002</v>
       </c>
       <c r="D68">
-        <v>15.584521423483507</v>
+        <v>7.8840000000000003</v>
       </c>
       <c r="E68">
-        <v>11.485783505253599</v>
+        <v>10.834</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>7.7</v>
-      </c>
-      <c r="B69">
-        <v>403.16739999999999</v>
+        <f t="shared" si="1"/>
+        <v>6.7999999999999918</v>
+      </c>
+      <c r="B69" s="2">
+        <v>7429.5</v>
       </c>
       <c r="C69">
-        <v>5.0172545948743821</v>
+        <v>0.55530000000000002</v>
       </c>
       <c r="D69">
-        <v>15.612284856369048</v>
+        <v>7.7271999999999998</v>
       </c>
       <c r="E69">
-        <v>11.548546107835891</v>
+        <v>10.912000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>7.8000000000000007</v>
-      </c>
-      <c r="B70">
-        <v>413.61689999999999</v>
+        <f t="shared" si="1"/>
+        <v>6.8999999999999915</v>
+      </c>
+      <c r="B70" s="2">
+        <v>7770.2</v>
       </c>
       <c r="C70">
-        <v>5.091331674032249</v>
+        <v>0.55110000000000003</v>
       </c>
       <c r="D70">
-        <v>15.640973125264184</v>
+        <v>7.7352999999999996</v>
       </c>
       <c r="E70">
-        <v>11.610802913366317</v>
+        <v>10.9902</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>7.9</v>
-      </c>
-      <c r="B71">
-        <v>424.2013</v>
+        <f t="shared" si="1"/>
+        <v>6.9999999999999911</v>
+      </c>
+      <c r="B71" s="2">
+        <v>7995.6</v>
       </c>
       <c r="C71">
-        <v>5.165692464532567</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="D71">
-        <v>15.666565584984243</v>
+        <v>7.6395</v>
       </c>
       <c r="E71">
-        <v>11.671533449429159</v>
+        <v>11.061</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>8</v>
-      </c>
-      <c r="B72">
-        <v>434.92059999999998</v>
+        <f t="shared" si="1"/>
+        <v>7.0999999999999908</v>
       </c>
       <c r="C72">
-        <v>5.2407073284828218</v>
+        <v>0.5645</v>
       </c>
       <c r="D72">
-        <v>15.69232989408099</v>
+        <v>7.8291000000000004</v>
       </c>
       <c r="E72">
-        <v>11.732402839222514</v>
+        <v>11.1341</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>8.1000000000000014</v>
-      </c>
-      <c r="B73">
-        <v>445.7747</v>
+        <f t="shared" si="1"/>
+        <v>7.1999999999999904</v>
       </c>
       <c r="C73">
-        <v>5.3162704044988649</v>
+        <v>0.58340000000000003</v>
       </c>
       <c r="D73">
-        <v>15.719607011260424</v>
+        <v>7.8346999999999998</v>
       </c>
       <c r="E73">
-        <v>11.793129782624311</v>
+        <v>11.209099999999999</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B74">
-        <v>456.7636</v>
+        <f t="shared" si="1"/>
+        <v>7.2999999999999901</v>
       </c>
       <c r="C74">
-        <v>5.3926435125004542</v>
+        <v>0.59140000000000004</v>
       </c>
       <c r="D74">
-        <v>15.737685088153203</v>
+        <v>7.7488000000000001</v>
       </c>
       <c r="E74">
-        <v>11.850648030672231</v>
+        <v>11.282400000000001</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B75">
-        <v>467.88729999999998</v>
+        <f t="shared" si="1"/>
+        <v>7.3999999999999897</v>
       </c>
       <c r="C75">
-        <v>5.471661317965494</v>
+        <v>0.59289999999999998</v>
       </c>
       <c r="D75">
-        <v>15.789571207583487</v>
+        <v>7.5476999999999999</v>
       </c>
       <c r="E75">
-        <v>12.154612905228435</v>
+        <v>11.3535</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>8.4</v>
-      </c>
-      <c r="B76">
-        <v>479.14589999999998</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999893</v>
       </c>
       <c r="C76">
-        <v>5.5536649453736997</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D76">
-        <v>15.87517607236723</v>
+        <v>7.6902999999999997</v>
       </c>
       <c r="E76">
-        <v>12.238377173122856</v>
+        <v>11.4213</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>8.5</v>
-      </c>
-      <c r="B77">
-        <v>490.53930000000003</v>
+        <f t="shared" si="1"/>
+        <v>7.599999999999989</v>
       </c>
       <c r="C77">
-        <v>5.6313713613955851</v>
+        <v>0.56040000000000001</v>
       </c>
       <c r="D77">
-        <v>15.913375192051847</v>
+        <v>7.8034999999999997</v>
       </c>
       <c r="E77">
-        <v>12.310349521671126</v>
+        <v>11.485799999999999</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>8.6000000000000014</v>
-      </c>
-      <c r="B78">
-        <v>502.0675</v>
+        <f t="shared" si="1"/>
+        <v>7.6999999999999886</v>
       </c>
       <c r="C78">
-        <v>5.7124259914354818</v>
+        <v>0.57069999999999999</v>
       </c>
       <c r="D78">
-        <v>15.960133240065911</v>
+        <v>7.8593999999999999</v>
       </c>
       <c r="E78">
-        <v>12.385225472369603</v>
+        <v>11.548500000000001</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="B79">
-        <v>513.73059999999998</v>
+        <f t="shared" si="1"/>
+        <v>7.7999999999999883</v>
       </c>
       <c r="C79">
-        <v>5.7997731634412171</v>
+        <v>0.57210000000000005</v>
       </c>
       <c r="D79">
-        <v>15.979683193376967</v>
+        <v>7.7526000000000002</v>
       </c>
       <c r="E79">
-        <v>12.455412947719299</v>
+        <v>11.610799999999999</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="B80">
-        <v>525.52850000000001</v>
+        <f t="shared" si="1"/>
+        <v>7.8999999999999879</v>
       </c>
       <c r="C80">
-        <v>5.887696433461068</v>
+        <v>0.58179999999999998</v>
       </c>
       <c r="D80">
-        <v>15.981742847566512</v>
+        <v>7.7210999999999999</v>
       </c>
       <c r="E80">
-        <v>12.520094212171623</v>
+        <v>11.6715</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>8.9</v>
-      </c>
-      <c r="B81">
-        <v>537.46130000000005</v>
+        <f t="shared" si="1"/>
+        <v>7.9999999999999876</v>
       </c>
       <c r="C81">
-        <v>5.9697778273189188</v>
+        <v>0.58819999999999995</v>
       </c>
       <c r="D81">
-        <v>15.993882320302202</v>
+        <v>7.8052999999999999</v>
       </c>
       <c r="E81">
-        <v>12.583663560649693</v>
+        <v>11.7324</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>9</v>
-      </c>
-      <c r="B82">
-        <v>549.52880000000005</v>
+        <f t="shared" si="1"/>
+        <v>8.0999999999999872</v>
       </c>
       <c r="C82">
-        <v>6.0524755798183119</v>
+        <v>0.58979999999999999</v>
       </c>
       <c r="D82">
-        <v>16.010114321668354</v>
+        <v>7.6113</v>
       </c>
       <c r="E82">
-        <v>12.647144391360767</v>
+        <v>11.793100000000001</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>9.1</v>
-      </c>
-      <c r="B83">
-        <v>561.73119999999994</v>
+        <f t="shared" si="1"/>
+        <v>8.1999999999999869</v>
       </c>
       <c r="C83">
-        <v>6.1363787581483393</v>
+        <v>0.60109999999999997</v>
       </c>
       <c r="D83">
-        <v>16.025262590747346</v>
+        <v>7.5975999999999999</v>
       </c>
       <c r="E83">
-        <v>12.710294256665629</v>
+        <v>11.8506</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>9.2000000000000011</v>
-      </c>
-      <c r="B84">
-        <v>574.06849999999997</v>
+        <f t="shared" si="1"/>
+        <v>8.2999999999999865</v>
       </c>
       <c r="C84">
-        <v>6.2226430772885655</v>
+        <v>0.5706</v>
       </c>
       <c r="D84">
-        <v>16.029968126267775</v>
+        <v>8.0547000000000004</v>
       </c>
       <c r="E84">
-        <v>12.770642941678497</v>
+        <v>12.1546</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B85">
-        <v>586.54049999999995</v>
+        <f t="shared" si="1"/>
+        <v>8.3999999999999861</v>
       </c>
       <c r="C85">
-        <v>6.309104197080158</v>
+        <v>0.57709999999999995</v>
       </c>
       <c r="D85">
-        <v>16.030557720368407</v>
+        <v>7.9631999999999996</v>
       </c>
       <c r="E85">
-        <v>12.828954669235527</v>
+        <v>12.2384</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>9.4</v>
-      </c>
-      <c r="B86">
-        <v>599.14750000000004</v>
+        <f t="shared" si="1"/>
+        <v>8.4999999999999858</v>
       </c>
       <c r="C86">
-        <v>6.3956553726317953</v>
+        <v>0.57730000000000004</v>
       </c>
       <c r="D86">
-        <v>16.030140017140365</v>
+        <v>7.8673000000000002</v>
       </c>
       <c r="E86">
-        <v>12.885779801090349</v>
+        <v>12.3103</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>9.5</v>
-      </c>
-      <c r="B87">
-        <v>611.88919999999996</v>
+        <f t="shared" si="1"/>
+        <v>8.5999999999999854</v>
       </c>
       <c r="C87">
-        <v>6.4825033435383039</v>
+        <v>0.53690000000000004</v>
       </c>
       <c r="D87">
-        <v>16.020872757957658</v>
+        <v>8.6873000000000005</v>
       </c>
       <c r="E87">
-        <v>12.938736571271518</v>
+        <v>12.385199999999999</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>9.6</v>
-      </c>
-      <c r="B88">
-        <v>624.76580000000001</v>
+        <f t="shared" si="1"/>
+        <v>8.6999999999999851</v>
       </c>
       <c r="C88">
-        <v>6.5714639333877356</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="D88">
-        <v>16.008127510315813</v>
+        <v>8.5677000000000003</v>
       </c>
       <c r="E88">
-        <v>12.991082553603164</v>
+        <v>12.455399999999999</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>9.7000000000000011</v>
-      </c>
-      <c r="B89">
-        <v>637.77719999999999</v>
+        <f t="shared" si="1"/>
+        <v>8.7999999999999847</v>
       </c>
       <c r="C89">
-        <v>6.6624286085290674</v>
+        <v>0.5393</v>
       </c>
       <c r="D89">
-        <v>15.989151866101805</v>
+        <v>8.5183999999999997</v>
       </c>
       <c r="E89">
-        <v>13.042095828504557</v>
+        <v>12.520099999999999</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="B90">
-        <v>650.92340000000002</v>
+        <f t="shared" si="1"/>
+        <v>8.8999999999999844</v>
       </c>
       <c r="C90">
-        <v>6.7728370906321276</v>
+        <v>0.55110000000000003</v>
       </c>
       <c r="D90">
-        <v>15.845245437220346</v>
+        <v>8.4723000000000006</v>
       </c>
       <c r="E90">
-        <v>13.068735971486866</v>
+        <v>12.5837</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>9.9</v>
-      </c>
-      <c r="B91">
-        <v>664.20450000000005</v>
+        <f t="shared" si="1"/>
+        <v>8.999999999999984</v>
       </c>
       <c r="C91">
-        <v>6.8620624396167447</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D91">
-        <v>15.860875643581727</v>
+        <v>8.5178999999999991</v>
       </c>
       <c r="E91">
-        <v>13.123735091553362</v>
+        <v>12.6471</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>10</v>
-      </c>
-      <c r="B92">
-        <v>677.62040000000002</v>
+        <f t="shared" si="1"/>
+        <v>9.0999999999999837</v>
       </c>
       <c r="C92">
-        <v>6.9534562611618655</v>
+        <v>0.54590000000000005</v>
       </c>
       <c r="D92">
-        <v>15.875109336669642</v>
+        <v>8.3322000000000003</v>
       </c>
       <c r="E92">
-        <v>13.178302699835585</v>
+        <v>12.7103</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>10.1</v>
-      </c>
-      <c r="B93">
-        <v>691.17110000000002</v>
+        <f t="shared" si="1"/>
+        <v>9.1999999999999833</v>
       </c>
       <c r="C93">
-        <v>7.0450537694750279</v>
+        <v>0.55159999999999998</v>
       </c>
       <c r="D93">
-        <v>15.885211537991152</v>
+        <v>8.2782</v>
       </c>
       <c r="E93">
-        <v>13.230983336811383</v>
+        <v>12.7706</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>10.200000000000001</v>
-      </c>
-      <c r="B94">
-        <v>704.85670000000005</v>
+        <f t="shared" si="1"/>
+        <v>9.2999999999999829</v>
       </c>
       <c r="C94">
-        <v>7.1354214505678035</v>
+        <v>0.56340000000000001</v>
       </c>
       <c r="D94">
-        <v>15.88814269807505</v>
+        <v>8.2661999999999995</v>
       </c>
       <c r="E94">
-        <v>13.279573662742484</v>
+        <v>12.829000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>10.3</v>
-      </c>
-      <c r="B95">
-        <v>718.6771</v>
+        <f t="shared" si="1"/>
+        <v>9.3999999999999826</v>
       </c>
       <c r="C95">
-        <v>7.2566325081929817</v>
+        <v>0.57150000000000001</v>
       </c>
       <c r="D95">
-        <v>15.694438442003515</v>
+        <v>8.1681000000000008</v>
       </c>
       <c r="E95">
-        <v>13.2687739237525</v>
+        <v>12.8858</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>10.4</v>
-      </c>
-      <c r="B96">
-        <v>732.63239999999996</v>
+        <f t="shared" si="1"/>
+        <v>9.4999999999999822</v>
       </c>
       <c r="C96">
-        <v>7.3419378030994267</v>
+        <v>0.58189999999999997</v>
       </c>
       <c r="D96">
-        <v>15.746256347966279</v>
+        <v>8.0974000000000004</v>
       </c>
       <c r="E96">
-        <v>13.545171722897596</v>
+        <v>12.938700000000001</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>10.5</v>
-      </c>
-      <c r="B97">
-        <v>746.72239999999999</v>
+        <f t="shared" si="1"/>
+        <v>9.5999999999999819</v>
       </c>
       <c r="C97">
-        <v>7.4357525727469689</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D97">
-        <v>15.839194116726123</v>
+        <v>8.5578000000000003</v>
       </c>
       <c r="E97">
-        <v>13.628170044021767</v>
+        <v>12.991099999999999</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>10.600000000000001</v>
-      </c>
-      <c r="B98">
-        <v>760.94730000000004</v>
+        <f t="shared" si="1"/>
+        <v>9.6999999999999815</v>
       </c>
       <c r="C98">
-        <v>7.5310296087439887</v>
+        <v>0.54810000000000003</v>
       </c>
       <c r="D98">
-        <v>15.925771764680427</v>
+        <v>8.4986999999999995</v>
       </c>
       <c r="E98">
-        <v>13.709800453365876</v>
+        <v>13.0421</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>10.700000000000001</v>
-      </c>
-      <c r="B99">
-        <v>775.30709999999999</v>
+        <f t="shared" si="1"/>
+        <v>9.7999999999999812</v>
       </c>
       <c r="C99">
-        <v>7.6296781233021944</v>
+        <v>0.55420000000000003</v>
       </c>
       <c r="D99">
-        <v>16.00718139760394</v>
+        <v>8.4443999999999999</v>
       </c>
       <c r="E99">
-        <v>13.792118971919157</v>
+        <v>13.0687</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>10.8</v>
-      </c>
-      <c r="B100">
-        <v>789.80160000000001</v>
+        <f t="shared" si="1"/>
+        <v>9.8999999999999808</v>
       </c>
       <c r="C100">
-        <v>7.7333919102477378</v>
+        <v>0.53710000000000002</v>
       </c>
       <c r="D100">
-        <v>16.019242851411263</v>
+        <v>8.9720999999999993</v>
       </c>
       <c r="E100">
-        <v>13.840170239034986</v>
+        <v>13.123699999999999</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>10.9</v>
-      </c>
-      <c r="B101">
-        <v>804.43100000000004</v>
+        <f t="shared" si="1"/>
+        <v>9.9999999999999805</v>
       </c>
       <c r="C101">
-        <v>7.8264827517265072</v>
+        <v>0.52829999999999999</v>
       </c>
       <c r="D101">
-        <v>16.086859702583101</v>
+        <v>9.5259</v>
       </c>
       <c r="E101">
-        <v>13.928008266966966</v>
+        <v>13.1783</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>11</v>
-      </c>
-      <c r="B102">
-        <v>819.19529999999997</v>
+        <f t="shared" si="1"/>
+        <v>10.09999999999998</v>
       </c>
       <c r="C102">
-        <v>7.9222598888762459</v>
+        <v>0.53049999999999997</v>
       </c>
       <c r="D102">
-        <v>16.151146035208388</v>
+        <v>9.4710999999999999</v>
       </c>
       <c r="E102">
-        <v>14.012838905384726</v>
+        <v>13.231</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>11.100000000000001</v>
-      </c>
-      <c r="B103">
-        <v>834.09439999999995</v>
+        <f t="shared" si="1"/>
+        <v>10.19999999999998</v>
       </c>
       <c r="C103">
-        <v>8.0345933740518447</v>
+        <v>0.53639999999999999</v>
       </c>
       <c r="D103">
-        <v>16.102375501560825</v>
+        <v>9.3605</v>
       </c>
       <c r="E103">
-        <v>14.060395968188155</v>
+        <v>13.2796</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>11.200000000000001</v>
-      </c>
-      <c r="B104">
-        <v>849.12829999999997</v>
+        <f t="shared" si="1"/>
+        <v>10.299999999999979</v>
       </c>
       <c r="C104">
-        <v>8.1264718146444626</v>
+        <v>0.54579999999999995</v>
       </c>
       <c r="D104">
-        <v>16.232736404580361</v>
+        <v>9.3948</v>
       </c>
       <c r="E104">
-        <v>14.167658087017855</v>
+        <v>13.268800000000001</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>11.3</v>
-      </c>
-      <c r="B105">
-        <v>864.29700000000003</v>
+        <f t="shared" si="1"/>
+        <v>10.399999999999979</v>
       </c>
       <c r="C105">
-        <v>8.2214240820904632</v>
+        <v>0.53059999999999996</v>
       </c>
       <c r="D105">
-        <v>16.371636724334031</v>
+        <v>9.6067</v>
       </c>
       <c r="E105">
-        <v>14.281812447856801</v>
+        <v>13.545199999999999</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>11.4</v>
-      </c>
-      <c r="B106">
-        <v>879.60059999999999</v>
+        <f t="shared" si="1"/>
+        <v>10.499999999999979</v>
       </c>
       <c r="C106">
-        <v>8.3181109192160889</v>
+        <v>0.52829999999999999</v>
       </c>
       <c r="D106">
-        <v>16.488754196287957</v>
+        <v>9.8381000000000007</v>
       </c>
       <c r="E106">
-        <v>14.387964567298868</v>
+        <v>13.6282</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>11.5</v>
-      </c>
-      <c r="B107">
-        <v>895.03899999999999</v>
+        <f t="shared" si="1"/>
+        <v>10.599999999999978</v>
       </c>
       <c r="C107">
-        <v>8.4225157449543566</v>
+        <v>0.52569999999999995</v>
       </c>
       <c r="D107">
-        <v>16.548456995043775</v>
+        <v>9.9916</v>
       </c>
       <c r="E107">
-        <v>14.464275225398929</v>
+        <v>13.7098</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>11.600000000000001</v>
-      </c>
-      <c r="B108">
-        <v>910.61220000000003</v>
+        <f t="shared" si="1"/>
+        <v>10.699999999999978</v>
       </c>
       <c r="C108">
-        <v>8.5222604632462104</v>
+        <v>0.53459999999999996</v>
       </c>
       <c r="D108">
-        <v>16.68815395507724</v>
+        <v>10.0481</v>
       </c>
       <c r="E108">
-        <v>14.742270375925175</v>
+        <v>13.7921</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>11.700000000000001</v>
-      </c>
-      <c r="B109">
-        <v>926.32029999999997</v>
+        <f t="shared" si="1"/>
+        <v>10.799999999999978</v>
       </c>
       <c r="C109">
-        <v>8.6428997699927521</v>
+        <v>0.5333</v>
       </c>
       <c r="D109">
-        <v>16.798476072280302</v>
+        <v>10.112399999999999</v>
       </c>
       <c r="E109">
-        <v>14.867953042494943</v>
+        <v>13.840199999999999</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>11.8</v>
-      </c>
-      <c r="B110">
-        <v>942.16319999999996</v>
+        <f t="shared" si="1"/>
+        <v>10.899999999999977</v>
       </c>
       <c r="C110">
-        <v>8.7471633952464884</v>
+        <v>0.52749999999999997</v>
       </c>
       <c r="D110">
-        <v>16.997488812573604</v>
+        <v>10.177199999999999</v>
       </c>
       <c r="E110">
-        <v>15.029962580223417</v>
+        <v>13.928000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>11.9</v>
-      </c>
-      <c r="B111">
-        <v>958.14089999999999</v>
+        <f t="shared" si="1"/>
+        <v>10.999999999999977</v>
       </c>
       <c r="C111">
-        <v>8.8549865822939839</v>
+        <v>0.53310000000000002</v>
       </c>
       <c r="D111">
-        <v>17.192286596503386</v>
+        <v>10.1768</v>
       </c>
       <c r="E111">
-        <v>15.195658719931702</v>
+        <v>14.0128</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>12</v>
-      </c>
-      <c r="B112">
-        <v>974.25350000000003</v>
+        <f t="shared" si="1"/>
+        <v>11.099999999999977</v>
       </c>
       <c r="C112">
-        <v>8.9797547122531611</v>
+        <v>0.53539999999999999</v>
       </c>
       <c r="D112">
-        <v>17.303411151474464</v>
+        <v>10.339399999999999</v>
       </c>
       <c r="E112">
-        <v>15.338049973372991</v>
+        <v>14.0604</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>11.199999999999976</v>
+      </c>
+      <c r="C113">
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="D113">
+        <v>10.5633</v>
+      </c>
+      <c r="E113">
+        <v>14.1677</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>11.299999999999976</v>
+      </c>
+      <c r="C114">
+        <v>0.54379999999999995</v>
+      </c>
+      <c r="D114">
+        <v>10.5421</v>
+      </c>
+      <c r="E114">
+        <v>14.2818</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>11.399999999999975</v>
+      </c>
+      <c r="C115">
+        <v>0.53510000000000002</v>
+      </c>
+      <c r="D115">
+        <v>10.6587</v>
+      </c>
+      <c r="E115">
+        <v>14.388</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>11.499999999999975</v>
+      </c>
+      <c r="C116">
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="D116">
+        <v>10.773899999999999</v>
+      </c>
+      <c r="E116">
+        <v>14.4643</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>11.599999999999975</v>
+      </c>
+      <c r="C117">
+        <v>0.54259999999999997</v>
+      </c>
+      <c r="D117">
+        <v>10.8977</v>
+      </c>
+      <c r="E117">
+        <v>14.7423</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>11.699999999999974</v>
+      </c>
+      <c r="C118">
+        <v>0.53939999999999999</v>
+      </c>
+      <c r="D118">
+        <v>11.025600000000001</v>
+      </c>
+      <c r="E118">
+        <v>14.868</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>11.799999999999974</v>
+      </c>
+      <c r="C119">
+        <v>0.54269999999999996</v>
+      </c>
+      <c r="D119">
+        <v>11.1165</v>
+      </c>
+      <c r="E119">
+        <v>15.03</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>11.899999999999974</v>
+      </c>
+      <c r="C120">
+        <v>0.54490000000000005</v>
+      </c>
+      <c r="D120">
+        <v>11.2044</v>
+      </c>
+      <c r="E120">
+        <v>15.1957</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>11.999999999999973</v>
+      </c>
+      <c r="C121">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D121">
+        <v>11.420999999999999</v>
+      </c>
+      <c r="E121">
+        <v>15.337999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>12.099999999999973</v>
+      </c>
+      <c r="C122">
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="D122">
+        <v>11.603899999999999</v>
+      </c>
+      <c r="E122">
+        <v>15.6325</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>12.199999999999973</v>
+      </c>
+      <c r="C123">
+        <v>0.69440000000000002</v>
+      </c>
+      <c r="D123">
+        <v>58.406700000000001</v>
+      </c>
+      <c r="E123">
+        <v>92.163399999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>12.299999999999972</v>
+      </c>
+      <c r="C124">
+        <v>0.69479999999999997</v>
+      </c>
+      <c r="D124">
+        <v>58.506</v>
+      </c>
+      <c r="E124">
+        <v>91.950199999999995</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>12.399999999999972</v>
+      </c>
+      <c r="C125">
+        <v>0.70540000000000003</v>
+      </c>
+      <c r="D125">
+        <v>58.317900000000002</v>
+      </c>
+      <c r="E125">
+        <v>91.726500000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>12.499999999999972</v>
+      </c>
+      <c r="C126">
+        <v>0.71379999999999999</v>
+      </c>
+      <c r="D126">
+        <v>57.973799999999997</v>
+      </c>
+      <c r="E126">
+        <v>91.392200000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>12.599999999999971</v>
+      </c>
+      <c r="C127">
+        <v>0.72060000000000002</v>
+      </c>
+      <c r="D127">
+        <v>58.133899999999997</v>
+      </c>
+      <c r="E127">
+        <v>92.557400000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>12.699999999999971</v>
+      </c>
+      <c r="C128">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="D128">
+        <v>57.732999999999997</v>
+      </c>
+      <c r="E128">
+        <v>92.326700000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>12.799999999999971</v>
+      </c>
+      <c r="C129">
+        <v>0.74009999999999998</v>
+      </c>
+      <c r="D129">
+        <v>57.763500000000001</v>
+      </c>
+      <c r="E129">
+        <v>91.8262</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>12.89999999999997</v>
+      </c>
+      <c r="C130">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="D130">
+        <v>57.299500000000002</v>
+      </c>
+      <c r="E130">
+        <v>91.213999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <f t="shared" si="1"/>
+        <v>12.99999999999997</v>
+      </c>
+      <c r="C131">
+        <v>0.75790000000000002</v>
+      </c>
+      <c r="D131">
+        <v>57.082099999999997</v>
+      </c>
+      <c r="E131">
+        <v>91.890500000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <f t="shared" ref="A132:A139" si="2">0.1+A131</f>
+        <v>13.099999999999969</v>
+      </c>
+      <c r="C132">
+        <v>0.7671</v>
+      </c>
+      <c r="D132">
+        <v>56.647500000000001</v>
+      </c>
+      <c r="E132">
+        <v>91.131900000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>13.199999999999969</v>
+      </c>
+      <c r="C133">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="D133">
+        <v>57.219200000000001</v>
+      </c>
+      <c r="E133">
+        <v>84.777100000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>13.299999999999969</v>
+      </c>
+      <c r="C134">
+        <v>0.79379999999999995</v>
+      </c>
+      <c r="D134">
+        <v>57.297499999999999</v>
+      </c>
+      <c r="E134">
+        <v>84.777100000000004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>13.399999999999968</v>
+      </c>
+      <c r="C135">
+        <v>0.8367</v>
+      </c>
+      <c r="D135">
+        <v>57.375300000000003</v>
+      </c>
+      <c r="E135">
+        <v>84.777100000000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>13.499999999999968</v>
+      </c>
+      <c r="C136">
+        <v>0.87970000000000004</v>
+      </c>
+      <c r="D136">
+        <v>57.452500000000001</v>
+      </c>
+      <c r="E136">
+        <v>84.777100000000004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>13.599999999999968</v>
+      </c>
+      <c r="C137">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="D137">
+        <v>57.529200000000003</v>
+      </c>
+      <c r="E137">
+        <v>84.777100000000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>13.699999999999967</v>
+      </c>
+      <c r="C138">
+        <v>0.9657</v>
+      </c>
+      <c r="D138">
+        <v>57.605400000000003</v>
+      </c>
+      <c r="E138">
+        <v>84.777100000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>13.799999999999967</v>
+      </c>
+      <c r="C139">
+        <v>1.0087999999999999</v>
+      </c>
+      <c r="D139">
+        <v>57.681100000000001</v>
+      </c>
+      <c r="E139">
+        <v>84.777100000000004</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BF352C-4B0F-465F-8C71-D79F26B1AAAF}">
-  <dimension ref="A2:A112"/>
-  <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>10.1959</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>11.611700000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>13.1622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>14.8477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>16.667899999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>18.623000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>20.712900000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>22.9377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>25.2972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>27.791599999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>30.4209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>33.185000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>36.0839</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>39.117600000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>42.286200000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>45.589599999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>49.027900000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>52.600999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>56.308900000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>60.151600000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>64.129199999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>68.241600000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>72.488900000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>76.870900000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>81.387900000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>86.039599999999993</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>90.8262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>95.747600000000006</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>100.8038</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>105.9949</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>111.32080000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>116.7816</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>122.3772</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>128.10759999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>133.97280000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>139.97290000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>146.1078</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>152.3776</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>158.78210000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>165.32149999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>171.9958</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>178.8049</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>185.74879999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>192.82749999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>200.0411</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>207.3895</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>214.87280000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>222.49080000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>230.24369999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>238.13149999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>246.1541</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>254.3115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>262.6037</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>271.0308</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>279.59269999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>288.2894</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>297.12099999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>306.0874</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>315.18869999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>324.4248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>333.79570000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>343.3014</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>352.94200000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>362.7174</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>372.62759999999997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>382.67270000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>392.8526</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>403.16739999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>413.61689999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>424.2013</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>434.92059999999998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>445.7747</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>456.7636</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>467.88729999999998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>479.14589999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>490.53930000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>502.0675</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>513.73059999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>525.52850000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>537.46130000000005</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>549.52880000000005</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>561.73119999999994</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>574.06849999999997</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>586.54049999999995</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>599.14750000000004</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>611.88919999999996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>624.76580000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>637.77719999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>650.92340000000002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>664.20450000000005</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>677.62040000000002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>691.17110000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>704.85670000000005</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>718.6771</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>732.63239999999996</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>746.72239999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>760.94730000000004</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>775.30709999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>789.80160000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>804.43100000000004</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>819.19529999999997</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>834.09439999999995</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>849.12829999999997</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>864.29700000000003</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>879.60059999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>895.03899999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>910.61220000000003</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>926.32029999999997</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>942.16319999999996</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>958.14089999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>974.25350000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:A112" xr:uid="{37BF352C-4B0F-465F-8C71-D79F26B1AAAF}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hydrostatic_properties.xlsx
+++ b/hydrostatic_properties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec99b48d946fe934/Documents/GitHub/Strutural-Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{6D1327D9-B129-4DB2-9FE9-8017326F1ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C86DDA1-2FD4-486B-B988-139193A9F290}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{6D1327D9-B129-4DB2-9FE9-8017326F1ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B68F0723-00C1-403A-9AE4-F3B6EF34ACF9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{368159F8-FF21-4606-B4AE-21AC2647A6CF}"/>
   </bookViews>
@@ -114,6 +114,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79614ECB-6913-466D-8A15-712229A599C4}">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,7 +428,7 @@
     <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,8 +444,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I1" s="1">
+        <v>21.599987280000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -457,8 +464,14 @@
       <c r="E2">
         <v>1.9882</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I2">
+        <v>1.93398648</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>0.1+A2</f>
         <v>0.2</v>
@@ -475,8 +488,14 @@
       <c r="E3">
         <v>2.0179999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <v>4.2530267999999998</v>
+      </c>
+      <c r="J3">
+        <v>1.0999927199999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">0.1+A3</f>
         <v>0.30000000000000004</v>
@@ -493,8 +512,14 @@
       <c r="E4">
         <v>2.0474999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I4">
+        <v>4.3220335199999997</v>
+      </c>
+      <c r="J4">
+        <v>1.315212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>0.4</v>
@@ -511,8 +536,14 @@
       <c r="E5">
         <v>2.0787</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I5">
+        <v>4.3220335199999997</v>
+      </c>
+      <c r="J5">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -529,8 +560,14 @@
       <c r="E6" s="2">
         <v>2.1126</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I6">
+        <v>1.93398648</v>
+      </c>
+      <c r="J6">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -547,8 +584,14 @@
       <c r="E7" s="2">
         <v>2.2170999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I7">
+        <v>1.93398648</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>0.7</v>
@@ -566,7 +609,7 @@
         <v>2.2783000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
@@ -583,8 +626,11 @@
       <c r="E9" s="2">
         <v>2.3853</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I9">
+        <v>20.800161599999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
@@ -601,8 +647,14 @@
       <c r="E10" s="2">
         <v>2.5295000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <v>1.93398648</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
@@ -619,8 +671,14 @@
       <c r="E11">
         <v>2.5668000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I11">
+        <v>4.2453153600000002</v>
+      </c>
+      <c r="J11">
+        <v>1.0999927199999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1.0999999999999999</v>
@@ -637,8 +695,14 @@
       <c r="E12">
         <v>2.6095000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <v>4.2998440799999997</v>
+      </c>
+      <c r="J12">
+        <v>1.2322149600000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>1.2</v>
@@ -655,8 +719,14 @@
       <c r="E13">
         <v>2.6591</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I13">
+        <v>4.3220030400000002</v>
+      </c>
+      <c r="J13">
+        <v>1.39711176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>1.3</v>
@@ -673,8 +743,14 @@
       <c r="E14">
         <v>2.9796</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I14">
+        <v>4.3220335199999997</v>
+      </c>
+      <c r="J14">
+        <v>1.60589976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
@@ -691,8 +767,14 @@
       <c r="E15">
         <v>3.0937999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I15">
+        <v>4.3220335199999997</v>
+      </c>
+      <c r="J15">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>1.5000000000000002</v>
@@ -709,8 +791,14 @@
       <c r="E16">
         <v>3.2208999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I16">
+        <v>1.93398648</v>
+      </c>
+      <c r="J16">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>1.6000000000000003</v>
@@ -727,8 +815,14 @@
       <c r="E17">
         <v>3.3685999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I17">
+        <v>1.93398648</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1.7000000000000004</v>
@@ -746,7 +840,7 @@
         <v>3.5326</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>1.8000000000000005</v>
@@ -763,8 +857,11 @@
       <c r="E19">
         <v>3.7635000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I19">
+        <v>16.00300584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>1.9000000000000006</v>
@@ -781,8 +878,14 @@
       <c r="E20">
         <v>4.3494000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I20">
+        <v>1.93398648</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
@@ -799,8 +902,14 @@
       <c r="E21">
         <v>4.4493999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I21">
+        <v>3.7434926399999999</v>
+      </c>
+      <c r="J21">
+        <v>1.0640872800000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2.1000000000000005</v>
@@ -817,8 +926,14 @@
       <c r="E22">
         <v>4.5354000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I22">
+        <v>3.9634058400000001</v>
+      </c>
+      <c r="J22">
+        <v>1.33249416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2.2000000000000006</v>
@@ -835,8 +950,14 @@
       <c r="E23">
         <v>4.6067</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I23">
+        <v>4.0482012000000003</v>
+      </c>
+      <c r="J23">
+        <v>1.47358608</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2.3000000000000007</v>
@@ -853,8 +974,14 @@
       <c r="E24">
         <v>4.6680000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I24">
+        <v>4.0305228</v>
+      </c>
+      <c r="J24">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>2.4000000000000008</v>
@@ -871,8 +998,14 @@
       <c r="E25">
         <v>4.7205000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I25">
+        <v>3.64071408</v>
+      </c>
+      <c r="J25">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>2.5000000000000009</v>
@@ -889,8 +1022,14 @@
       <c r="E26">
         <v>4.7733999999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I26">
+        <v>3.2876947200000002</v>
+      </c>
+      <c r="J26">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>2.600000000000001</v>
@@ -907,8 +1046,14 @@
       <c r="E27">
         <v>4.8315999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I27">
+        <v>3.1106973600000001</v>
+      </c>
+      <c r="J27">
+        <v>1.6593921599999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>2.7000000000000011</v>
@@ -925,8 +1070,14 @@
       <c r="E28">
         <v>4.9054000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I28">
+        <v>2.5196901600000001</v>
+      </c>
+      <c r="J28">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>2.8000000000000012</v>
@@ -943,8 +1094,14 @@
       <c r="E29">
         <v>6.0979000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I29">
+        <v>1.93398648</v>
+      </c>
+      <c r="J29">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>2.9000000000000012</v>
@@ -961,8 +1118,14 @@
       <c r="E30">
         <v>6.3101000000000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I30">
+        <v>1.93398648</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>3.0000000000000013</v>
@@ -980,7 +1143,7 @@
         <v>6.5137999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>3.1000000000000014</v>
@@ -997,8 +1160,11 @@
       <c r="E32">
         <v>6.7051999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I32">
+        <v>15.99998832</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>3.2000000000000015</v>
@@ -1015,8 +1181,14 @@
       <c r="E33">
         <v>6.8596000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I33">
+        <v>1.0578998399999999</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>3.3000000000000016</v>
@@ -1033,8 +1205,14 @@
       <c r="E34">
         <v>7.0101000000000004</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I34">
+        <v>2.2446996000000001</v>
+      </c>
+      <c r="J34">
+        <v>0.40001952000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>3.4000000000000017</v>
@@ -1051,8 +1229,14 @@
       <c r="E35">
         <v>7.1410999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I35">
+        <v>3.4434779999999998</v>
+      </c>
+      <c r="J35">
+        <v>0.96411287999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>3.5000000000000018</v>
@@ -1069,8 +1253,14 @@
       <c r="E36">
         <v>7.2686999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I36">
+        <v>3.8634009599999999</v>
+      </c>
+      <c r="J36">
+        <v>1.33249416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>3.6000000000000019</v>
@@ -1087,8 +1277,14 @@
       <c r="E37">
         <v>7.3887999999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I37">
+        <v>3.8482219199999999</v>
+      </c>
+      <c r="J37">
+        <v>1.47358608</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>3.700000000000002</v>
@@ -1105,8 +1301,14 @@
       <c r="E38">
         <v>7.4722999999999997</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I38">
+        <v>3.83051304</v>
+      </c>
+      <c r="J38">
+        <v>1.559814</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>3.800000000000002</v>
@@ -1123,8 +1325,14 @@
       <c r="E39">
         <v>7.5606</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I39">
+        <v>3.64071408</v>
+      </c>
+      <c r="J39">
+        <v>1.61891472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>3.9000000000000021</v>
@@ -1141,8 +1349,14 @@
       <c r="E40">
         <v>7.649</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I40">
+        <v>3.18768984</v>
+      </c>
+      <c r="J40">
+        <v>1.63750752</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>4.0000000000000018</v>
@@ -1159,8 +1373,14 @@
       <c r="E41">
         <v>7.7285000000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I41">
+        <v>2.7107083200000002</v>
+      </c>
+      <c r="J41">
+        <v>1.6593921599999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>4.1000000000000014</v>
@@ -1177,8 +1397,14 @@
       <c r="E42">
         <v>7.8009000000000004</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I42">
+        <v>2.3197108800000001</v>
+      </c>
+      <c r="J42">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>4.2000000000000011</v>
@@ -1195,8 +1421,14 @@
       <c r="E43">
         <v>7.8663999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I43">
+        <v>1.0578998399999999</v>
+      </c>
+      <c r="J43">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>4.3000000000000007</v>
@@ -1213,8 +1445,14 @@
       <c r="E44">
         <v>8.4176000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I44">
+        <v>1.0578998399999999</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
@@ -1232,7 +1470,7 @@
         <v>8.5266999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>4.5</v>
@@ -1249,8 +1487,11 @@
       <c r="E46">
         <v>8.6332000000000004</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I46">
+        <v>14.404238400000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
@@ -1267,8 +1508,14 @@
       <c r="E47">
         <v>8.7370000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I47">
+        <v>1.0578998399999999</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>4.6999999999999993</v>
@@ -1285,8 +1532,14 @@
       <c r="E48">
         <v>8.8381000000000007</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I48">
+        <v>2.9120896799999998</v>
+      </c>
+      <c r="J48">
+        <v>0.90001344000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>4.7999999999999989</v>
@@ -1303,8 +1556,14 @@
       <c r="E49">
         <v>8.9352</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I49">
+        <v>3.3101889600000001</v>
+      </c>
+      <c r="J49">
+        <v>1.0852099200000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>4.8999999999999986</v>
@@ -1321,8 +1580,14 @@
       <c r="E50">
         <v>9.0276999999999994</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I50">
+        <v>3.4699955999999998</v>
+      </c>
+      <c r="J50">
+        <v>1.2095073599999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>4.9999999999999982</v>
@@ -1339,8 +1604,14 @@
       <c r="E51">
         <v>9.1198999999999995</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I51">
+        <v>3.5592105599999999</v>
+      </c>
+      <c r="J51">
+        <v>1.2752832000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>5.0999999999999979</v>
@@ -1357,8 +1628,14 @@
       <c r="E52">
         <v>9.2121999999999993</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I52">
+        <v>3.6400130399999999</v>
+      </c>
+      <c r="J52">
+        <v>1.36312656</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>5.1999999999999975</v>
@@ -1375,8 +1652,14 @@
       <c r="E53">
         <v>9.3038000000000007</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I53">
+        <v>3.5547909600000001</v>
+      </c>
+      <c r="J53">
+        <v>1.5472257599999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>5.2999999999999972</v>
@@ -1393,8 +1676,14 @@
       <c r="E54">
         <v>9.3933</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I54">
+        <v>3.1024067999999998</v>
+      </c>
+      <c r="J54">
+        <v>1.6051072799999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>5.3999999999999968</v>
@@ -1411,8 +1700,14 @@
       <c r="E55">
         <v>9.4814000000000007</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I55">
+        <v>2.5727863200000001</v>
+      </c>
+      <c r="J55">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>5.4999999999999964</v>
@@ -1429,8 +1724,14 @@
       <c r="E56">
         <v>9.5658999999999992</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I56">
+        <v>1.0578998399999999</v>
+      </c>
+      <c r="J56">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>5.5999999999999961</v>
@@ -1447,8 +1748,14 @@
       <c r="E57">
         <v>9.6471999999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I57">
+        <v>1.0578998399999999</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>5.6999999999999957</v>
@@ -1466,7 +1773,7 @@
         <v>9.7235999999999994</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>5.7999999999999954</v>
@@ -1483,8 +1790,11 @@
       <c r="E59">
         <v>9.8001000000000005</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I59">
+        <v>14.3975328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>5.899999999999995</v>
@@ -1501,8 +1811,14 @@
       <c r="E60">
         <v>9.8759999999999994</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I60">
+        <v>1.0578998399999999</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>5.9999999999999947</v>
@@ -1519,8 +1835,14 @@
       <c r="E61">
         <v>9.9502000000000006</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I61">
+        <v>2.2630180800000002</v>
+      </c>
+      <c r="J61">
+        <v>0.70003415999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>6.0999999999999943</v>
@@ -1537,8 +1859,14 @@
       <c r="E62">
         <v>10.02</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I62">
+        <v>2.7438096000000001</v>
+      </c>
+      <c r="J62">
+        <v>0.97362263999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>6.199999999999994</v>
@@ -1555,8 +1883,14 @@
       <c r="E63">
         <v>10.0868</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I63">
+        <v>3.1096000799999999</v>
+      </c>
+      <c r="J63">
+        <v>1.1608308000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>6.2999999999999936</v>
@@ -1573,8 +1907,14 @@
       <c r="E64">
         <v>10.153</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I64">
+        <v>3.3698992799999998</v>
+      </c>
+      <c r="J64">
+        <v>1.2943332000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>6.3999999999999932</v>
@@ -1591,8 +1931,14 @@
       <c r="E65">
         <v>10.2135</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I65">
+        <v>3.3499043999999998</v>
+      </c>
+      <c r="J65">
+        <v>1.34392416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>6.4999999999999929</v>
@@ -1609,8 +1955,14 @@
       <c r="E66">
         <v>10.6617</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I66">
+        <v>3.403092</v>
+      </c>
+      <c r="J66">
+        <v>1.42292832</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>6.5999999999999925</v>
@@ -1627,8 +1979,14 @@
       <c r="E67">
         <v>10.7492</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I67">
+        <v>3.2726375999999999</v>
+      </c>
+      <c r="J67">
+        <v>1.5049195200000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="1">0.1+A67</f>
         <v>6.6999999999999922</v>
@@ -1645,8 +2003,14 @@
       <c r="E68">
         <v>10.834</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I68">
+        <v>3.06372768</v>
+      </c>
+      <c r="J68">
+        <v>1.5640202400000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>6.7999999999999918</v>
@@ -1663,8 +2027,14 @@
       <c r="E69">
         <v>10.912000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I69">
+        <v>2.7182064000000001</v>
+      </c>
+      <c r="J69">
+        <v>1.63680648</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>6.8999999999999915</v>
@@ -1681,8 +2051,14 @@
       <c r="E70">
         <v>10.9902</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I70">
+        <v>2.57379216</v>
+      </c>
+      <c r="J70">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>6.9999999999999911</v>
@@ -1699,8 +2075,14 @@
       <c r="E71">
         <v>11.061</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I71">
+        <v>1.0578998399999999</v>
+      </c>
+      <c r="J71">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>7.0999999999999908</v>
@@ -1714,8 +2096,14 @@
       <c r="E72">
         <v>11.1341</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I72">
+        <v>1.0578998399999999</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>7.1999999999999904</v>
@@ -1730,7 +2118,7 @@
         <v>11.209099999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>7.2999999999999901</v>
@@ -1744,8 +2132,11 @@
       <c r="E74">
         <v>11.282400000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I74">
+        <v>13.599993120000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>7.3999999999999897</v>
@@ -1759,8 +2150,14 @@
       <c r="E75">
         <v>11.3535</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I75">
+        <v>1.0578998399999999</v>
+      </c>
+      <c r="J75">
+        <v>2.5908E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>7.4999999999999893</v>
@@ -1774,8 +2171,14 @@
       <c r="E76">
         <v>11.4213</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I76">
+        <v>1.9676973600000001</v>
+      </c>
+      <c r="J76">
+        <v>0.64730376000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>7.599999999999989</v>
@@ -1789,8 +2192,14 @@
       <c r="E77">
         <v>11.485799999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I77">
+        <v>2.0950732799999998</v>
+      </c>
+      <c r="J77">
+        <v>0.76032359999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>7.6999999999999886</v>
@@ -1804,8 +2213,14 @@
       <c r="E78">
         <v>11.548500000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I78">
+        <v>2.6664818399999999</v>
+      </c>
+      <c r="J78">
+        <v>1.1500104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>7.7999999999999883</v>
@@ -1819,8 +2234,14 @@
       <c r="E79">
         <v>11.610799999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I79">
+        <v>2.75060664</v>
+      </c>
+      <c r="J79">
+        <v>1.3095122399999899</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>7.8999999999999879</v>
@@ -1834,8 +2255,14 @@
       <c r="E80">
         <v>11.6715</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I80">
+        <v>2.7617927999999998</v>
+      </c>
+      <c r="J80">
+        <v>1.3334085600000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>7.9999999999999876</v>
@@ -1849,8 +2276,14 @@
       <c r="E81">
         <v>11.7324</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I81">
+        <v>2.8191866399999999</v>
+      </c>
+      <c r="J81">
+        <v>1.5570098400000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>8.0999999999999872</v>
@@ -1864,8 +2297,14 @@
       <c r="E82">
         <v>11.793100000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I82">
+        <v>2.5259080799999998</v>
+      </c>
+      <c r="J82">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>8.1999999999999869</v>
@@ -1879,8 +2318,14 @@
       <c r="E83">
         <v>11.8506</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I83">
+        <v>1.0578998399999999</v>
+      </c>
+      <c r="J83">
+        <v>1.65899592</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>8.2999999999999865</v>
@@ -1894,8 +2339,14 @@
       <c r="E84">
         <v>12.1546</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I84">
+        <v>1.0578998399999999</v>
+      </c>
+      <c r="J84">
+        <v>2.5908E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>8.3999999999999861</v>
@@ -1910,7 +2361,7 @@
         <v>12.2384</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>8.4999999999999858</v>
@@ -1925,7 +2376,7 @@
         <v>12.3103</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>8.5999999999999854</v>
@@ -1940,7 +2391,7 @@
         <v>12.385199999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>8.6999999999999851</v>
@@ -1955,7 +2406,7 @@
         <v>12.455399999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>8.7999999999999847</v>
@@ -1970,7 +2421,7 @@
         <v>12.520099999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>8.8999999999999844</v>
@@ -1985,7 +2436,7 @@
         <v>12.5837</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>8.999999999999984</v>
@@ -2000,7 +2451,7 @@
         <v>12.6471</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>9.0999999999999837</v>
@@ -2015,7 +2466,7 @@
         <v>12.7103</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>9.1999999999999833</v>
@@ -2030,7 +2481,7 @@
         <v>12.7706</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>9.2999999999999829</v>
@@ -2045,7 +2496,7 @@
         <v>12.829000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>9.3999999999999826</v>
@@ -2060,7 +2511,7 @@
         <v>12.8858</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>9.4999999999999822</v>
